--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.5103244837758</v>
+        <v>93.86430678466077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1586157443734313</v>
+        <v>0.1477134240985227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9351032448377581</v>
+        <v>0.9386430678466077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9343909029475022</v>
+        <v>0.934266254073709</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.53149248695924</v>
+        <v>94.13083158158807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2258039389004504</v>
+        <v>0.1633255561993792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9053149248695924</v>
+        <v>0.9413083158158807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8941278808439757</v>
+        <v>0.939016140314874</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.27728613569322</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.156589341087359</v>
+        <v>0.1400151290959911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9427728613569322</v>
+        <v>0.956047197640118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9405479280419626</v>
+        <v>0.9538925270508773</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.00294985250738</v>
+        <v>92.47787610619469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2519269585168028</v>
+        <v>0.2098960332919281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9100294985250738</v>
+        <v>0.9247787610619469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9057407176997027</v>
+        <v>0.9235497766373093</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.35450133651675</v>
+        <v>78.05465445202813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6066054554942336</v>
+        <v>0.7435329032038378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8035450133651676</v>
+        <v>0.7805465445202813</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7861658367237597</v>
+        <v>0.758906026706142</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.29238142198463</v>
+        <v>90.53131947508197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4233374803792685</v>
+        <v>0.3115571575258703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8929238142198461</v>
+        <v>0.9053131947508197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8745015503381899</v>
+        <v>0.8922190998975534</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.41002949852508</v>
+        <v>89.49852507374632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2619266242157513</v>
+        <v>0.2796466232549089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8941002949852507</v>
+        <v>0.8949852507374632</v>
       </c>
       <c r="E8" t="n">
-        <v>0.894662496659884</v>
+        <v>0.887616682237466</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.68436578171091</v>
+        <v>92.09439528023599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1900598514701414</v>
+        <v>0.2127842381717831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9268436578171091</v>
+        <v>0.9209439528023597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9247795071563042</v>
+        <v>0.9177243766701967</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.1858407079646</v>
+        <v>92.62536873156343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1930290722453113</v>
+        <v>0.2124492190225283</v>
       </c>
       <c r="D10" t="n">
-        <v>0.931858407079646</v>
+        <v>0.9262536873156343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9295259271343964</v>
+        <v>0.9235992768437689</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.52212389380531</v>
+        <v>89.70501474926253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3658454904945757</v>
+        <v>0.275228643963419</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8752212389380531</v>
+        <v>0.8970501474926253</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8599928950867618</v>
+        <v>0.8931574466433642</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.07079646017699</v>
+        <v>84.66076696165192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6065948650978196</v>
+        <v>0.5122086936452737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8407079646017699</v>
+        <v>0.8466076696165192</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8278640047466854</v>
+        <v>0.8424271363703181</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.24501076998936</v>
+        <v>83.39250339535809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6131020827257696</v>
+        <v>0.6689823449128501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8324501076998935</v>
+        <v>0.8339250339535809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8209054102415715</v>
+        <v>0.8219444294870417</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.01769911504425</v>
+        <v>97.87610619469027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08527555610213919</v>
+        <v>0.05262607651164521</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9601769911504425</v>
+        <v>0.9787610619469026</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9605205373248861</v>
+        <v>0.9785306472670653</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.60766961651917</v>
+        <v>98.34808259587021</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07814940686227226</v>
+        <v>0.04935694902305841</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9660766961651918</v>
+        <v>0.9834808259587021</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9669502377361366</v>
+        <v>0.9835707099916136</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.24778761061947</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1432036446642693</v>
+        <v>0.1124198173689403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9424778761061947</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9399421420870278</v>
+        <v>0.9418794407758115</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.39735061145282</v>
+        <v>91.16244950215832</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2906710341753064</v>
+        <v>0.2727828539526624</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9039735061145281</v>
+        <v>0.9116244950215833</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8973745316512499</v>
+        <v>0.9061533313978074</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.52802359882006</v>
+        <v>91.00294985250738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2687044889641887</v>
+        <v>0.2557154516328107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8952802359882005</v>
+        <v>0.9100294985250738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8912899789011043</v>
+        <v>0.9070116727976816</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.46312684365782</v>
+        <v>88.20768345746936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2988617986723209</v>
+        <v>0.3109894446444741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8746312684365781</v>
+        <v>0.8820768345746937</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8725275531312595</v>
+        <v>0.8815186456091381</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.77320738068667</v>
+        <v>93.65799012102181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1625622993051365</v>
+        <v>0.1568675586022437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9277320738068668</v>
+        <v>0.9365799012102182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9275791071093449</v>
+        <v>0.9376678989076902</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.171264457305</v>
+        <v>87.02082197942889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3590685516013764</v>
+        <v>0.4742056290851906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88171264457305</v>
+        <v>0.870208219794289</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8739774950231716</v>
+        <v>0.8560452483410852</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.3997785447971</v>
+        <v>71.45200217994964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8089538563818982</v>
+        <v>0.9194986580735227</v>
       </c>
       <c r="D6" t="n">
-        <v>0.743997785447971</v>
+        <v>0.7145200217994965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7380076854566491</v>
+        <v>0.6995607050349818</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.93976591493006</v>
+        <v>87.37618837533196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3850006459892029</v>
+        <v>0.4143006057750124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8693976591493007</v>
+        <v>0.8737618837533196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8617420860663806</v>
+        <v>0.8668182931380229</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.14454277286136</v>
+        <v>86.75810344380142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4048143433935668</v>
+        <v>0.4529124614452787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8914454277286137</v>
+        <v>0.8675810344380143</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8735835261081151</v>
+        <v>0.8557184764126632</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.61721122155036</v>
+        <v>91.26843657817111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27125303807746</v>
+        <v>0.2569194831080798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8961721122155035</v>
+        <v>0.9126843657817109</v>
       </c>
       <c r="E9" t="n">
-        <v>0.891661901433654</v>
+        <v>0.9047988029606049</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.56342182890856</v>
+        <v>90.58997050147494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2110562851924139</v>
+        <v>0.2424633476436914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9156342182890855</v>
+        <v>0.9058997050147493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9155463443819712</v>
+        <v>0.9001712041910354</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.14454277286136</v>
+        <v>90.35398230088495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2953658650347885</v>
+        <v>0.2619521946364936</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8914454277286137</v>
+        <v>0.9035398230088496</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8847436144229427</v>
+        <v>0.9021118960022207</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.68141592920355</v>
+        <v>81.00294985250738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7737161824742846</v>
+        <v>0.7414958512834953</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8168141592920355</v>
+        <v>0.8100294985250738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8162404169175256</v>
+        <v>0.8002543872358631</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.06489675516224</v>
+        <v>82.41887905604719</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6026988399931724</v>
+        <v>0.6226424874660249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8206489675516224</v>
+        <v>0.824188790560472</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8052433488408862</v>
+        <v>0.8139426830596221</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.21256239240824</v>
+        <v>92.62536873156343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2391734947023603</v>
+        <v>0.217877137210932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9221256239240823</v>
+        <v>0.9262536873156343</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9201405078114512</v>
+        <v>0.9230459196056742</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.24483775811208</v>
+        <v>96.66666666666666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2139518894118131</v>
+        <v>0.08925215008259027</v>
       </c>
       <c r="D15" t="n">
-        <v>0.932448377581121</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9331857369289548</v>
+        <v>0.966767808019749</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.81710914454277</v>
+        <v>95.30973451327434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07813555612810888</v>
+        <v>0.1331253266212116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9781710914454278</v>
+        <v>0.9530973451327434</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9780042358217333</v>
+        <v>0.9521800357385077</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.38438048772046</v>
+        <v>88.38078184067336</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3582211423548061</v>
+        <v>0.3700145191540701</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8838438048772048</v>
+        <v>0.8838078184067336</v>
       </c>
       <c r="E17" t="n">
-        <v>0.878898235890343</v>
+        <v>0.877840911803636</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.52541977006722</v>
+        <v>87.90629676727308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3313077094819164</v>
+        <v>0.335175426973486</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8852541977006722</v>
+        <v>0.8790629676727306</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8815589843658603</v>
+        <v>0.8774509949780349</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.95778510194725</v>
+        <v>82.93748215815016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5330782968783752</v>
+        <v>0.4856992142119756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7995778510194725</v>
+        <v>0.8293748215815017</v>
       </c>
       <c r="E3" t="n">
-        <v>0.785992414413063</v>
+        <v>0.8091073610143112</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.09213747523768</v>
+        <v>91.56394086454034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2278117143342873</v>
+        <v>0.2360332957095428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9109213747523768</v>
+        <v>0.9156394086454036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9102120359099486</v>
+        <v>0.9168136625660066</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.01192916893744</v>
+        <v>83.80876997205857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6644940341978023</v>
+        <v>0.4370292372380694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7901192916893744</v>
+        <v>0.8380876997205858</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7859823325887579</v>
+        <v>0.832940565072015</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.2461786001609</v>
+        <v>66.01986176351006</v>
       </c>
       <c r="C6" t="n">
-        <v>1.059072779212147</v>
+        <v>1.060548618979131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.682461786001609</v>
+        <v>0.6601986176351007</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6678541611655131</v>
+        <v>0.6464152959061603</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.19274388186749</v>
+        <v>77.45715793389216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6677997783524916</v>
+        <v>0.7429805830897143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8119274388186749</v>
+        <v>0.7745715793389216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7976592851192141</v>
+        <v>0.7632219932821001</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.8025242432893</v>
+        <v>79.84325123919757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5483501785357172</v>
+        <v>0.6972200009617761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8180252424328931</v>
+        <v>0.7984325123919758</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8080502224684232</v>
+        <v>0.7758716245524655</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.84104533776244</v>
+        <v>88.05327035701001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3857892499072477</v>
+        <v>0.3002828074619174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8484104533776243</v>
+        <v>0.8805327035701002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8479852404578733</v>
+        <v>0.8802480770749737</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.21097933373126</v>
+        <v>87.94167769617384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290889745997265</v>
+        <v>0.2983634489425943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8921097933373126</v>
+        <v>0.8794167769617385</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8917925851938848</v>
+        <v>0.8772643029808158</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.04423913701676</v>
+        <v>83.27658543759028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4221050743372568</v>
+        <v>0.4613903602090431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8404423913701675</v>
+        <v>0.8327658543759029</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8335967503403421</v>
+        <v>0.8243185872095029</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.79646017699115</v>
+        <v>73.18739781485999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7247062738169916</v>
+        <v>0.8512526659411378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8079646017699116</v>
+        <v>0.7318739781485999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8017608618790616</v>
+        <v>0.7322116431643286</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.97952404432564</v>
+        <v>79.62672687479996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5613573582367584</v>
+        <v>0.5748400131550928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8297952404432565</v>
+        <v>0.7962672687479995</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8195041497411631</v>
+        <v>0.797031993817903</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.43673388178098</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3317867026974758</v>
+        <v>0.2819999817952824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8643673388178099</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8641462478272857</v>
+        <v>0.905889162216211</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.86686736044429</v>
+        <v>88.14176593223125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.257506300360789</v>
+        <v>0.3331677930994071</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8986686736044429</v>
+        <v>0.8814176593223125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8975220154720989</v>
+        <v>0.8801003128017963</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.3453057552401</v>
+        <v>94.69545584304362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09604918428958627</v>
+        <v>0.1469670458132896</v>
       </c>
       <c r="D16" t="n">
-        <v>0.973453057552401</v>
+        <v>0.9469545584304363</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9730723966466464</v>
+        <v>0.94666806466113</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.35665821792001</v>
+        <v>83.67194064539197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4734736253757404</v>
+        <v>0.4828633662387639</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8435665821792001</v>
+        <v>0.8367194064539198</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8377793122392758</v>
+        <v>0.8310369094198503</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.34784037924203</v>
+        <v>61.47760793778493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7765912955005965</v>
+        <v>0.9248298052698374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7034784037924203</v>
+        <v>0.6147760793778493</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7002843440146427</v>
+        <v>0.607995490308596</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.16249275512764</v>
+        <v>57.39963148470142</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00454893981417</v>
+        <v>0.9693447416027385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6416249275512764</v>
+        <v>0.5739963148470142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6181980731891681</v>
+        <v>0.5437705444745904</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.74420193946314</v>
+        <v>78.83407295910864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5298012722283602</v>
+        <v>0.5335090585052967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7974420193946314</v>
+        <v>0.7883407295910864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7943228960417477</v>
+        <v>0.7880643388407715</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.85571674495454</v>
+        <v>58.24280486855423</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00107596963644</v>
+        <v>1.022414496044318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6085571674495454</v>
+        <v>0.5824280486855422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5918852568678157</v>
+        <v>0.5667094023115034</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.72815508784677</v>
+        <v>63.79025770119119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8946512334048748</v>
+        <v>0.9752759955823421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6472815508784678</v>
+        <v>0.6379025770119119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6226669013742119</v>
+        <v>0.6132906423687359</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.44374951340409</v>
+        <v>63.2872256680421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9471587816874185</v>
+        <v>1.060140849649906</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6744374951340409</v>
+        <v>0.632872256680421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6576158756832887</v>
+        <v>0.6212472345430881</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.95075216913641</v>
+        <v>51.41558317978529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9941293865442276</v>
+        <v>1.465059377998114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5695075216913641</v>
+        <v>0.5141558317978528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5596469677815612</v>
+        <v>0.4534405644633281</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.92822602271646</v>
+        <v>60.75190961859532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8883428792158764</v>
+        <v>0.9215587735176086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6292822602271646</v>
+        <v>0.6075190961859531</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6220797077728291</v>
+        <v>0.5981976465528336</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.37697557937352</v>
+        <v>63.21629079836331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7738698254028956</v>
+        <v>0.823622473080953</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6837697557937352</v>
+        <v>0.6321629079836331</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6802670649114158</v>
+        <v>0.6268494541028518</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.53518629053885</v>
+        <v>61.60183046566146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7943468136092027</v>
+        <v>0.8578760152061781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6753518629053884</v>
+        <v>0.6160183046566147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6691270393793948</v>
+        <v>0.6123038963916745</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.74828501976661</v>
+        <v>56.05870292995614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9201494333644709</v>
+        <v>1.051548994332552</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6174828501976661</v>
+        <v>0.5605870292995614</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6124133606580393</v>
+        <v>0.5512428754030179</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.13698215382486</v>
+        <v>60.95424700905717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8373049216965833</v>
+        <v>0.9202813431620598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6513698215382486</v>
+        <v>0.6095424700905717</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6462437248739904</v>
+        <v>0.6008926551445771</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.1236429380877</v>
+        <v>62.42467495393559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6829663780828317</v>
+        <v>0.9298546860615412</v>
       </c>
       <c r="D14" t="n">
-        <v>0.731236429380877</v>
+        <v>0.6242467495393559</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7265515048767257</v>
+        <v>0.608543802427328</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.5194681614893</v>
+        <v>78.49237450150953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5057167928707107</v>
+        <v>0.4527815450293322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8051946816148929</v>
+        <v>0.7849237450150952</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7962676109945399</v>
+        <v>0.7835277211035707</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.3355565359562</v>
+        <v>87.15732835059127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.291091266196842</v>
+        <v>0.3347238541891178</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9033555653595619</v>
+        <v>0.8715732835059127</v>
       </c>
       <c r="E16" t="n">
-        <v>0.902032916960548</v>
+        <v>0.8701922420375097</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.92914875272854</v>
+        <v>64.34030282845583</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7894496792837001</v>
+        <v>0.8828548006154597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6892914875272853</v>
+        <v>0.6434030282845585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6799735496919947</v>
+        <v>0.6297512340315984</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.28424986375315</v>
+        <v>51.84214396318307</v>
       </c>
       <c r="C2" t="n">
-        <v>1.294210916447143</v>
+        <v>1.291158603131771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4928424986375315</v>
+        <v>0.5184214396318307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4692467289192417</v>
+        <v>0.4938840797832008</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.55858614693899</v>
+        <v>53.9438057422642</v>
       </c>
       <c r="C3" t="n">
-        <v>1.372415045990298</v>
+        <v>1.050696743528048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5255858614693899</v>
+        <v>0.5394380574226421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4818852016596485</v>
+        <v>0.4953158080080306</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.57869012707722</v>
+        <v>62.98722307286396</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212751440207164</v>
+        <v>0.978906658788522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5657869012707722</v>
+        <v>0.6298722307286395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5420917597186891</v>
+        <v>0.6097412672258743</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.5108694711892</v>
+        <v>57.68319795153938</v>
       </c>
       <c r="C5" t="n">
-        <v>1.300703258067369</v>
+        <v>1.288403286784887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.565108694711892</v>
+        <v>0.5768319795153938</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5353069904503374</v>
+        <v>0.5482231236407522</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.5535428507167</v>
+        <v>59.18070225520982</v>
       </c>
       <c r="C6" t="n">
-        <v>1.138297053178152</v>
+        <v>1.024055499831835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.595535428507167</v>
+        <v>0.5918070225520983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5645230352312672</v>
+        <v>0.5716455241671584</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.02141887040545</v>
+        <v>59.5093383160754</v>
       </c>
       <c r="C7" t="n">
-        <v>1.034207789724072</v>
+        <v>1.126112652570009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6602141887040546</v>
+        <v>0.5950933831607539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6355433017561856</v>
+        <v>0.5794354892836477</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.14866045554027</v>
+        <v>54.17157587868407</v>
       </c>
       <c r="C8" t="n">
-        <v>2.599752998848756</v>
+        <v>1.941225102543831</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3514866045554027</v>
+        <v>0.5417157587868408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2851747168486651</v>
+        <v>0.4826342331028917</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.56326611821902</v>
+        <v>45.72479000683397</v>
       </c>
       <c r="C9" t="n">
-        <v>1.213297751049201</v>
+        <v>1.630302090880772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5356326611821901</v>
+        <v>0.4572479000683397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5161769973512788</v>
+        <v>0.4099064823752878</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.74392512045952</v>
+        <v>58.91538854142336</v>
       </c>
       <c r="C10" t="n">
-        <v>1.664422922084729</v>
+        <v>1.136454614003499</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4774392512045952</v>
+        <v>0.5891538854142337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4127229762060421</v>
+        <v>0.5687229360927483</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.07358195140097</v>
+        <v>55.47340374916738</v>
       </c>
       <c r="C11" t="n">
-        <v>1.091518739238381</v>
+        <v>1.039619811624289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5607358195140096</v>
+        <v>0.5547340374916738</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5430115040550672</v>
+        <v>0.5379940805176174</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.28147302312303</v>
+        <v>53.61188245573059</v>
       </c>
       <c r="C12" t="n">
-        <v>1.253603663047155</v>
+        <v>1.190531945228577</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5828147302312304</v>
+        <v>0.5361188245573059</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5615045797747747</v>
+        <v>0.5198246559895997</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.9170754072267</v>
+        <v>48.77109663578405</v>
       </c>
       <c r="C13" t="n">
-        <v>1.488211161643267</v>
+        <v>1.403548991431792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.539170754072267</v>
+        <v>0.4877109663578404</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5171976459196655</v>
+        <v>0.4410436418413397</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.70700438585109</v>
+        <v>57.13033849773787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8127872024973234</v>
+        <v>1.082870068152746</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6970700438585109</v>
+        <v>0.5713033849773786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6814127592913197</v>
+        <v>0.5476650967711486</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.01087379648612</v>
+        <v>71.70944385332054</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5573496603484576</v>
+        <v>0.7220642245064179</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7701087379648612</v>
+        <v>0.7170944385332053</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7651517940808518</v>
+        <v>0.6906401679090977</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.96711909272571</v>
+        <v>73.95617609148869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.642246026545763</v>
+        <v>0.7494007257236566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7896711909272571</v>
+        <v>0.7395617609148868</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7893166161053715</v>
+        <v>0.7291139493501688</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58.06135577874088</v>
+        <v>57.64070046742042</v>
       </c>
       <c r="C17" t="n">
-        <v>1.245051708594482</v>
+        <v>1.17702340124871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5806135577874088</v>
+        <v>0.5764070046742041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5533511071578938</v>
+        <v>0.5483860357372375</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.86430678466077</v>
+        <v>94.42477876106196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1477134240985227</v>
+        <v>0.147990992043924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9386430678466077</v>
+        <v>0.9442477876106194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.934266254073709</v>
+        <v>0.943403298852469</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.13083158158807</v>
+        <v>92.74543897438559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1633255561993792</v>
+        <v>0.2092256093300717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9413083158158807</v>
+        <v>0.9274543897438559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.939016140314874</v>
+        <v>0.9228155589478547</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.60471976401179</v>
+        <v>95.36873156342183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1400151290959911</v>
+        <v>0.1477840090835646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.956047197640118</v>
+        <v>0.9536873156342184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9538925270508773</v>
+        <v>0.9515274005368181</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.47787610619469</v>
+        <v>91.00294985250738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2098960332919281</v>
+        <v>0.2155483638339016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9247787610619469</v>
+        <v>0.9100294985250738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9235497766373093</v>
+        <v>0.9073442193054155</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.05465445202813</v>
+        <v>78.32083322520091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7435329032038378</v>
+        <v>0.7296399785205722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7805465445202813</v>
+        <v>0.7832083322520091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.758906026706142</v>
+        <v>0.7616825929315654</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.53131947508197</v>
+        <v>90.35450133651675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3115571575258703</v>
+        <v>0.3411150211351924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9053131947508197</v>
+        <v>0.9035450133651676</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8922190998975534</v>
+        <v>0.8926757813686917</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.49852507374632</v>
+        <v>88.08259587020649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2796466232549089</v>
+        <v>0.3507053519317803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8949852507374632</v>
+        <v>0.8808259587020648</v>
       </c>
       <c r="E8" t="n">
-        <v>0.887616682237466</v>
+        <v>0.8751297648502014</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.09439528023599</v>
+        <v>93.27433628318583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2127842381717831</v>
+        <v>0.1794720755542736</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9209439528023597</v>
+        <v>0.9327433628318584</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9177243766701967</v>
+        <v>0.9288583419431568</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.62536873156343</v>
+        <v>91.41592920353983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2124492190225283</v>
+        <v>0.2591898072016193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9262536873156343</v>
+        <v>0.9141592920353983</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9235992768437689</v>
+        <v>0.9102004494223891</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.70501474926253</v>
+        <v>89.67551622418878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.275228643963419</v>
+        <v>0.2917462503740657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8970501474926253</v>
+        <v>0.8967551622418879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8931574466433642</v>
+        <v>0.8881291310152462</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.66076696165192</v>
+        <v>83.74631268436579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5122086936452737</v>
+        <v>0.6509831375495801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8466076696165192</v>
+        <v>0.8374631268436579</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8424271363703181</v>
+        <v>0.8264983228971238</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.39250339535809</v>
+        <v>83.00902256939939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6689823449128501</v>
+        <v>0.7266071359093379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8339250339535809</v>
+        <v>0.8300902256939938</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8219444294870417</v>
+        <v>0.8161828652983596</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.87610619469027</v>
+        <v>97.1976401179941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05262607651164521</v>
+        <v>0.06801780461970944</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9787610619469026</v>
+        <v>0.9719764011799409</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9785306472670653</v>
+        <v>0.9716626039125223</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.34808259587021</v>
+        <v>97.55162241887906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04935694902305841</v>
+        <v>0.06258785922612825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9834808259587021</v>
+        <v>0.9755162241887906</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9835707099916136</v>
+        <v>0.9758351526653148</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.57227138643069</v>
+        <v>95.13274336283186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1124198173689403</v>
+        <v>0.1078954079990581</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9457227138643068</v>
+        <v>0.9513274336283185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9418794407758115</v>
+        <v>0.94915461636062</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.16244950215832</v>
+        <v>90.75353016317904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2727828539526624</v>
+        <v>0.2992339202875186</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9116244950215833</v>
+        <v>0.9075353016317903</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9061533313978074</v>
+        <v>0.9014066733538498</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.00294985250738</v>
+        <v>92.06489675516224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2557154516328107</v>
+        <v>0.219307688785193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9100294985250738</v>
+        <v>0.9206489675516224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9070116727976816</v>
+        <v>0.9186723777055604</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.20768345746936</v>
+        <v>83.20314189569115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3109894446444741</v>
+        <v>0.4647580818245842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8820768345746937</v>
+        <v>0.8320314189569114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8815186456091381</v>
+        <v>0.810272653612792</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.65799012102181</v>
+        <v>93.27520134257216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1568675586022437</v>
+        <v>0.1742005925255702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9365799012102182</v>
+        <v>0.9327520134257217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9376678989076902</v>
+        <v>0.9329390034715708</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.02082197942889</v>
+        <v>86.66666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4742056290851906</v>
+        <v>0.3763491564469101</v>
       </c>
       <c r="D5" t="n">
-        <v>0.870208219794289</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8560452483410852</v>
+        <v>0.8579052339640063</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.45200217994964</v>
+        <v>75.01890154759124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9194986580735227</v>
+        <v>0.7693940183962695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7145200217994965</v>
+        <v>0.7501890154759124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6995607050349818</v>
+        <v>0.7388265486597126</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.37618837533196</v>
+        <v>80.91921210391094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4143006057750124</v>
+        <v>0.6991157194521899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8737618837533196</v>
+        <v>0.8091921210391094</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8668182931380229</v>
+        <v>0.802708770413996</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.75810344380142</v>
+        <v>87.34513274336283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4529124614452787</v>
+        <v>0.4592546025562722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8675810344380143</v>
+        <v>0.8734513274336283</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8557184764126632</v>
+        <v>0.861090760099982</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.26843657817111</v>
+        <v>90.91445427728613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2569194831080798</v>
+        <v>0.3056793672197576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9126843657817109</v>
+        <v>0.9091445427728614</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9047988029606049</v>
+        <v>0.9014954879954035</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.58997050147494</v>
+        <v>90.26548672566372</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2424633476436914</v>
+        <v>0.2938474971131654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9058997050147493</v>
+        <v>0.9026548672566372</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9001712041910354</v>
+        <v>0.895354411096787</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.35398230088495</v>
+        <v>91.18011401482713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2619521946364936</v>
+        <v>0.2747743198407989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9035398230088496</v>
+        <v>0.9118011401482711</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9021118960022207</v>
+        <v>0.909903439031385</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.00294985250738</v>
+        <v>82.47787610619469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7414958512834953</v>
+        <v>0.6271143075410994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8100294985250738</v>
+        <v>0.8247787610619468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8002543872358631</v>
+        <v>0.8208602769009274</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.41887905604719</v>
+        <v>82.124066817187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6226424874660249</v>
+        <v>0.6519661835045554</v>
       </c>
       <c r="D13" t="n">
-        <v>0.824188790560472</v>
+        <v>0.82124066817187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8139426830596221</v>
+        <v>0.8098184704846906</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.62536873156343</v>
+        <v>96.07669616519175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217877137210932</v>
+        <v>0.1078337878522689</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9262536873156343</v>
+        <v>0.9607669616519174</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9230459196056742</v>
+        <v>0.9605215647557775</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         <v>96.66666666666666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08925215008259027</v>
+        <v>0.1027028045700869</v>
       </c>
       <c r="D15" t="n">
         <v>0.9666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.966767808019749</v>
+        <v>0.9671292748219003</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.30973451327434</v>
+        <v>96.4306784660767</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1331253266212116</v>
+        <v>0.1270117848403364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9530973451327434</v>
+        <v>0.9643067846607669</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9521800357385077</v>
+        <v>0.963638964991671</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.38078184067336</v>
+        <v>88.30861281960341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3700145191540701</v>
+        <v>0.3768873274979371</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8838078184067336</v>
+        <v>0.8830861281960338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.877840911803636</v>
+        <v>0.8767424825337443</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.90629676727308</v>
+        <v>87.11468092284535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.335175426973486</v>
+        <v>0.3649163524571729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8790629676727306</v>
+        <v>0.8711468092284536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8774509949780349</v>
+        <v>0.8670055834656649</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.93748215815016</v>
+        <v>79.31037465722021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4856992142119756</v>
+        <v>0.5793289230049898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8293748215815017</v>
+        <v>0.7931037465722022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8091073610143112</v>
+        <v>0.772335910259889</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.56394086454034</v>
+        <v>86.60784262839644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2360332957095428</v>
+        <v>0.3678398851673895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9156394086454036</v>
+        <v>0.8660784262839645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9168136625660066</v>
+        <v>0.8605156615932629</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.80876997205857</v>
+        <v>84.07442970959957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4370292372380694</v>
+        <v>0.4087430850602686</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8380876997205858</v>
+        <v>0.8407442970959955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.832940565072015</v>
+        <v>0.8390163433879293</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.01986176351006</v>
+        <v>65.92185053503923</v>
       </c>
       <c r="C6" t="n">
-        <v>1.060548618979131</v>
+        <v>1.130625786696328</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6601986176351007</v>
+        <v>0.6592185053503923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6464152959061603</v>
+        <v>0.6476387079394319</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.45715793389216</v>
+        <v>74.73654616389415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7429805830897143</v>
+        <v>0.9580309288265804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7745715793389216</v>
+        <v>0.7473654616389415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7632219932821001</v>
+        <v>0.7324195871318706</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.84325123919757</v>
+        <v>80.29619633387833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6972200009617761</v>
+        <v>0.6018517413564648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7984325123919758</v>
+        <v>0.8029619633387831</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7758716245524655</v>
+        <v>0.7997228800601199</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.05327035701001</v>
+        <v>86.0496198063997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3002828074619174</v>
+        <v>0.4199390513706021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8805327035701002</v>
+        <v>0.860496198063997</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8802480770749737</v>
+        <v>0.8558910673808473</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.94167769617384</v>
+        <v>85.49079144283255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2983634489425943</v>
+        <v>0.6514405742365246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8794167769617385</v>
+        <v>0.8549079144283255</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8772643029808158</v>
+        <v>0.8447558562541259</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.27658543759028</v>
+        <v>86.87350236593741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4613903602090431</v>
+        <v>0.4349229788756929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8327658543759029</v>
+        <v>0.8687350236593743</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8243185872095029</v>
+        <v>0.8609876580616849</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.18739781485999</v>
+        <v>75.28127405946418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8512526659411378</v>
+        <v>0.9583219257746048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7318739781485999</v>
+        <v>0.7528127405946419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7322116431643286</v>
+        <v>0.7344892406631948</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.62672687479996</v>
+        <v>77.60361248799731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5748400131550928</v>
+        <v>0.6189243551033238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7962672687479995</v>
+        <v>0.776036124879973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.797031993817903</v>
+        <v>0.7728664653989019</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.61946902654867</v>
+        <v>89.17473334544415</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2819999817952824</v>
+        <v>0.3275764386053197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9061946902654867</v>
+        <v>0.8917473334544417</v>
       </c>
       <c r="E14" t="n">
-        <v>0.905889162216211</v>
+        <v>0.8918152386694036</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.14176593223125</v>
+        <v>92.18323687921176</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3331677930994071</v>
+        <v>0.228453808925163</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8814176593223125</v>
+        <v>0.9218323687921176</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8801003128017963</v>
+        <v>0.9223346662803742</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.69545584304362</v>
+        <v>94.48377581120944</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1469670458132896</v>
+        <v>0.1423792157846037</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9469545584304363</v>
+        <v>0.9448377581120944</v>
       </c>
       <c r="E16" t="n">
-        <v>0.94666806466113</v>
+        <v>0.9428249598917094</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.67194064539197</v>
+        <v>83.01349780995798</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4828633662387639</v>
+        <v>0.5462196700830019</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8367194064539198</v>
+        <v>0.8301349780995797</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8310369094198503</v>
+        <v>0.822974655095894</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.47760793778493</v>
+        <v>56.61502262130296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9248298052698374</v>
+        <v>1.078755405545235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6147760793778493</v>
+        <v>0.5661502262130296</v>
       </c>
       <c r="E2" t="n">
-        <v>0.607995490308596</v>
+        <v>0.5514877593338866</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.39963148470142</v>
+        <v>58.15413628145573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9693447416027385</v>
+        <v>1.005271591246128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5739963148470142</v>
+        <v>0.5815413628145573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5437705444745904</v>
+        <v>0.5588506769895129</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.83407295910864</v>
+        <v>75.26959575774876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5335090585052967</v>
+        <v>0.6427865840494633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7883407295910864</v>
+        <v>0.7526959575774878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7880643388407715</v>
+        <v>0.7524820923914144</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.24280486855423</v>
+        <v>60.63443455393212</v>
       </c>
       <c r="C5" t="n">
-        <v>1.022414496044318</v>
+        <v>0.9864414960145951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5824280486855422</v>
+        <v>0.6063443455393213</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5667094023115034</v>
+        <v>0.5915525216001647</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.79025770119119</v>
+        <v>64.73438351542833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9752759955823421</v>
+        <v>0.8720270558570823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6379025770119119</v>
+        <v>0.6473438351542834</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6132906423687359</v>
+        <v>0.6317318722842933</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.2872256680421</v>
+        <v>61.89404752636269</v>
       </c>
       <c r="C7" t="n">
-        <v>1.060140849649906</v>
+        <v>1.1310646597296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.632872256680421</v>
+        <v>0.6189404752636268</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6212472345430881</v>
+        <v>0.5908594801519036</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.41558317978529</v>
+        <v>50.50268600939454</v>
       </c>
       <c r="C8" t="n">
-        <v>1.465059377998114</v>
+        <v>1.323287076503038</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5141558317978528</v>
+        <v>0.5050268600939455</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4534405644633281</v>
+        <v>0.4854725439173123</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.75190961859532</v>
+        <v>60.80986859747922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9215587735176086</v>
+        <v>0.9323742936054865</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6075190961859531</v>
+        <v>0.6080986859747922</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5981976465528336</v>
+        <v>0.6020188177482902</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.21629079836331</v>
+        <v>64.07468922741546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823622473080953</v>
+        <v>0.8358581483364105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6321629079836331</v>
+        <v>0.6407468922741546</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6268494541028518</v>
+        <v>0.6295946046047731</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.60183046566146</v>
+        <v>60.81142570437461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8578760152061781</v>
+        <v>0.8541648223996162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6160183046566147</v>
+        <v>0.6081142570437461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6123038963916745</v>
+        <v>0.6065266582179732</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.05870292995614</v>
+        <v>58.32749418247563</v>
       </c>
       <c r="C12" t="n">
-        <v>1.051548994332552</v>
+        <v>0.97761085703969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5605870292995614</v>
+        <v>0.5832749418247563</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5512428754030179</v>
+        <v>0.580574922393035</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.95424700905717</v>
+        <v>61.04758691684184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9202813431620598</v>
+        <v>0.899024678270022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6095424700905717</v>
+        <v>0.6104758691684185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6008926551445771</v>
+        <v>0.6054239537551103</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.42467495393559</v>
+        <v>64.16941323021825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9298546860615412</v>
+        <v>0.8776769618193307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6242467495393559</v>
+        <v>0.6416941323021825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.608543802427328</v>
+        <v>0.6269570034461047</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.49237450150953</v>
+        <v>78.19704322701753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4527815450293322</v>
+        <v>0.4908405448232467</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7849237450150952</v>
+        <v>0.7819704322701753</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7835277211035707</v>
+        <v>0.7701254437801948</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.15732835059127</v>
+        <v>87.59773008417028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3347238541891178</v>
+        <v>0.2972493095944325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8715732835059127</v>
+        <v>0.8759773008417028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8701922420375097</v>
+        <v>0.8738017157077295</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.34030282845583</v>
+        <v>64.18930382904119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8828548006154597</v>
+        <v>0.8802955656555584</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6434030282845585</v>
+        <v>0.641893038290412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6297512340315984</v>
+        <v>0.63049733775478</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.84214396318307</v>
+        <v>54.32348030692307</v>
       </c>
       <c r="C2" t="n">
-        <v>1.291158603131771</v>
+        <v>1.19651931921641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5184214396318307</v>
+        <v>0.5432348030692307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4938840797832008</v>
+        <v>0.5210694445582542</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.9438057422642</v>
+        <v>57.00698102924766</v>
       </c>
       <c r="C3" t="n">
-        <v>1.050696743528048</v>
+        <v>0.9541156883041063</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5394380574226421</v>
+        <v>0.5700698102924766</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4953158080080306</v>
+        <v>0.54898321276833</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.98722307286396</v>
+        <v>62.23488092457548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.978906658788522</v>
+        <v>1.068900594611963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6298722307286395</v>
+        <v>0.6223488092457548</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6097412672258743</v>
+        <v>0.6053560893932017</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.68319795153938</v>
+        <v>54.62780819903286</v>
       </c>
       <c r="C5" t="n">
-        <v>1.288403286784887</v>
+        <v>1.455964379260938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5768319795153938</v>
+        <v>0.5462780819903286</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5482231236407522</v>
+        <v>0.4966149662012341</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.18070225520982</v>
+        <v>57.53535930241611</v>
       </c>
       <c r="C6" t="n">
-        <v>1.024055499831835</v>
+        <v>1.308594298859437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5918070225520983</v>
+        <v>0.5753535930241611</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5716455241671584</v>
+        <v>0.5368780522049701</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.5093383160754</v>
+        <v>56.94244759902767</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126112652570009</v>
+        <v>1.177912679562966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5950933831607539</v>
+        <v>0.5694244759902767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5794354892836477</v>
+        <v>0.5579549072738055</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.17157587868407</v>
+        <v>49.20111765672713</v>
       </c>
       <c r="C8" t="n">
-        <v>1.941225102543831</v>
+        <v>2.737059246997039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5417157587868408</v>
+        <v>0.4920111765672713</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4826342331028917</v>
+        <v>0.4241043768500816</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.72479000683397</v>
+        <v>47.53388870145935</v>
       </c>
       <c r="C9" t="n">
-        <v>1.630302090880772</v>
+        <v>1.925829884658257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4572479000683397</v>
+        <v>0.4753388870145935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4099064823752878</v>
+        <v>0.4139619868732953</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.91538854142336</v>
+        <v>59.32317753613786</v>
       </c>
       <c r="C10" t="n">
-        <v>1.136454614003499</v>
+        <v>1.027154511461655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5891538854142337</v>
+        <v>0.5932317753613786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5687229360927483</v>
+        <v>0.5827197418746242</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.47340374916738</v>
+        <v>51.00571804254362</v>
       </c>
       <c r="C11" t="n">
-        <v>1.039619811624289</v>
+        <v>1.313815281415979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5547340374916738</v>
+        <v>0.5100571804254362</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5379940805176174</v>
+        <v>0.4785583472066907</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.61188245573059</v>
+        <v>56.73768804228411</v>
       </c>
       <c r="C12" t="n">
-        <v>1.190531945228577</v>
+        <v>1.04722014516592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5361188245573059</v>
+        <v>0.5673768804228411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5198246559895997</v>
+        <v>0.5431483403199687</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.77109663578405</v>
+        <v>48.11520860907101</v>
       </c>
       <c r="C13" t="n">
-        <v>1.403548991431792</v>
+        <v>1.604286875575781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4877109663578404</v>
+        <v>0.4811520860907101</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4410436418413397</v>
+        <v>0.4343708169165551</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.13033849773787</v>
+        <v>57.25646415626433</v>
       </c>
       <c r="C14" t="n">
-        <v>1.082870068152746</v>
+        <v>1.137130804608266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5713033849773786</v>
+        <v>0.5725646415626433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5476650967711486</v>
+        <v>0.5588451636749348</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.70944385332054</v>
+        <v>76.68604399692039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7220642245064179</v>
+        <v>0.578510708604396</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7170944385332053</v>
+        <v>0.7668604399692038</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6906401679090977</v>
+        <v>0.7543445013997484</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.95617609148869</v>
+        <v>73.21975103590862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7494007257236566</v>
+        <v>0.9118255981593393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7395617609148868</v>
+        <v>0.7321975103590862</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7291139493501688</v>
+        <v>0.7018782322257079</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.64070046742042</v>
+        <v>57.45000100923595</v>
       </c>
       <c r="C17" t="n">
-        <v>1.17702340124871</v>
+        <v>1.296322667764163</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5764070046742041</v>
+        <v>0.5745000100923595</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5483860357372375</v>
+        <v>0.5439192119827603</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.1.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.42477876106196</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.147990992043924</v>
+        <v>0.1229991361972983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9442477876106194</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.943403298852469</v>
+        <v>0.9443474107308851</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.74543897438559</v>
+        <v>94.92781079421103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2092256093300717</v>
+        <v>0.1552423805886662</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9274543897438559</v>
+        <v>0.9492781079421102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9228155589478547</v>
+        <v>0.9487186170253917</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.36873156342183</v>
+        <v>95.6637168141593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1477840090835646</v>
+        <v>0.1501845849155264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9536873156342184</v>
+        <v>0.9566371681415931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9515274005368181</v>
+        <v>0.9559691116079956</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.00294985250738</v>
+        <v>89.20353982300885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2155483638339016</v>
+        <v>0.3965827892793944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9100294985250738</v>
+        <v>0.8920353982300885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9073442193054155</v>
+        <v>0.8790217511898077</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.32083322520091</v>
+        <v>77.22852273808597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7296399785205722</v>
+        <v>0.6991958983077591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7832083322520091</v>
+        <v>0.7722852273808597</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7616825929315654</v>
+        <v>0.7539318922103033</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.35450133651675</v>
+        <v>88.43796226610957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3411150211351924</v>
+        <v>0.3177343620685861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9035450133651676</v>
+        <v>0.8843796226610957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8926757813686917</v>
+        <v>0.8834997107997176</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.08259587020649</v>
+        <v>89.41002949852506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3507053519317803</v>
+        <v>0.3020034655598768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8808259587020648</v>
+        <v>0.8941002949852507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8751297648502014</v>
+        <v>0.8836664911075405</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.27433628318583</v>
+        <v>92.9203539823009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1794720755542736</v>
+        <v>0.1822474915413295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9327433628318584</v>
+        <v>0.929203539823009</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9288583419431568</v>
+        <v>0.9268399594517864</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.41592920353983</v>
+        <v>92.74336283185841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2591898072016193</v>
+        <v>0.2143392281422469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9141592920353983</v>
+        <v>0.9274336283185841</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9102004494223891</v>
+        <v>0.9263564243711742</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.67551622418878</v>
+        <v>88.58407079646017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2917462503740657</v>
+        <v>0.3059956228506204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8967551622418879</v>
+        <v>0.8858407079646018</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8881291310152462</v>
+        <v>0.8802573855582617</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.74631268436579</v>
+        <v>84.0117994100295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6509831375495801</v>
+        <v>0.5706334563456039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8374631268436579</v>
+        <v>0.840117994100295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8264983228971238</v>
+        <v>0.8329010437833663</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.00902256939939</v>
+        <v>82.03557124196576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7266071359093379</v>
+        <v>0.7154546887943677</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8300902256939938</v>
+        <v>0.8203557124196577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8161828652983596</v>
+        <v>0.8045841124418029</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.1976401179941</v>
+        <v>97.31563421828909</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06801780461970944</v>
+        <v>0.06740231821997895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9719764011799409</v>
+        <v>0.9731563421828909</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9716626039125223</v>
+        <v>0.972493621077089</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.55162241887906</v>
+        <v>95.9882005899705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06258785922612825</v>
+        <v>0.09160424019280905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9755162241887906</v>
+        <v>0.9598820058997051</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9758351526653148</v>
+        <v>0.9600591428996301</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.13274336283186</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1078954079990581</v>
+        <v>0.1259600607394172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9513274336283185</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E16" t="n">
-        <v>0.94915461636062</v>
+        <v>0.9424657868463626</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.75353016317904</v>
+        <v>90.50767451852236</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2992339202875186</v>
+        <v>0.294505314916232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9075353016317903</v>
+        <v>0.9050767451852237</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9014066733538498</v>
+        <v>0.8996741640734077</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.06489675516224</v>
+        <v>91.47492625368731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.219307688785193</v>
+        <v>0.2256805569370045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9206489675516224</v>
+        <v>0.9147492625368731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9186723777055604</v>
+        <v>0.9123427698149469</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.20314189569115</v>
+        <v>86.70100952430384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4647580818245842</v>
+        <v>0.336663023553759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8320314189569114</v>
+        <v>0.8670100952430385</v>
       </c>
       <c r="E3" t="n">
-        <v>0.810272653612792</v>
+        <v>0.8559145852449884</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.27520134257216</v>
+        <v>94.0117994100295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1742005925255702</v>
+        <v>0.1640202211603537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9327520134257217</v>
+        <v>0.940117994100295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9329390034715708</v>
+        <v>0.939491115201926</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.66666666666666</v>
+        <v>89.43952802359883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3763491564469101</v>
+        <v>0.3012210009270347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8666666666666666</v>
+        <v>0.8943952802359881</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8579052339640063</v>
+        <v>0.8906559663779371</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.01890154759124</v>
+        <v>77.34841996903087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7693940183962695</v>
+        <v>0.8046338489861228</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7501890154759124</v>
+        <v>0.7734841996903088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7388265486597126</v>
+        <v>0.7601643369003954</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.91921210391094</v>
+        <v>80.85156445990017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6991157194521899</v>
+        <v>0.5936330446779418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8091921210391094</v>
+        <v>0.8085156445990018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.802708770413996</v>
+        <v>0.8052307585315814</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.34513274336283</v>
+        <v>86.01769911504425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4592546025562722</v>
+        <v>0.4118871728870242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8734513274336283</v>
+        <v>0.8601769911504424</v>
       </c>
       <c r="E8" t="n">
-        <v>0.861090760099982</v>
+        <v>0.8552562403770325</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.91445427728613</v>
+        <v>92.27138643067846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3056793672197576</v>
+        <v>0.213828116501827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9091445427728614</v>
+        <v>0.9227138643067846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9014954879954035</v>
+        <v>0.9192029025156211</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.26548672566372</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2938474971131654</v>
+        <v>0.2042594463719676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9026548672566372</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.895354411096787</v>
+        <v>0.9164533439074196</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.18011401482713</v>
+        <v>90.17733717419701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2747743198407989</v>
+        <v>0.289037650100848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9118011401482711</v>
+        <v>0.90177337174197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.909903439031385</v>
+        <v>0.8984341604990063</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.47787610619469</v>
+        <v>83.45150044550559</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6271143075410994</v>
+        <v>0.6783405571764888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8247787610619468</v>
+        <v>0.8345150044550559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8208602769009274</v>
+        <v>0.8286085162434352</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.124066817187</v>
+        <v>82.77286135693215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6519661835045554</v>
+        <v>0.5490108502310856</v>
       </c>
       <c r="D13" t="n">
-        <v>0.82124066817187</v>
+        <v>0.8277286135693215</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8098184704846906</v>
+        <v>0.8213365350597348</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.07669616519175</v>
+        <v>95.33923303834808</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1078337878522689</v>
+        <v>0.1232613875150491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9607669616519174</v>
+        <v>0.9533923303834808</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9605215647557775</v>
+        <v>0.9532681659781108</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.66666666666666</v>
+        <v>96.19469026548673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1027028045700869</v>
+        <v>0.09709691579576732</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.9619469026548673</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9671292748219003</v>
+        <v>0.9621955525357861</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.4306784660767</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1270117848403364</v>
+        <v>0.121283276170531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9643067846607669</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.963638964991671</v>
+        <v>0.956085674495484</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.30861281960341</v>
+        <v>88.91673803406606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3768873274979371</v>
+        <v>0.3409238045995203</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8830861281960338</v>
+        <v>0.8891673803406605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8767424825337443</v>
+        <v>0.8849760415788936</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.11468092284535</v>
+        <v>86.81554338705352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3649163524571729</v>
+        <v>0.3366505601550064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8711468092284536</v>
+        <v>0.8681554338705352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8670055834656649</v>
+        <v>0.8671595937750668</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.31037465722021</v>
+        <v>76.01657453784203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5793289230049898</v>
+        <v>0.6352520061365794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7931037465722022</v>
+        <v>0.7601657453784203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.772335910259889</v>
+        <v>0.7432279127241088</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.60784262839644</v>
+        <v>87.40430280538759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3678398851673895</v>
+        <v>0.3432147035603217</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8660784262839645</v>
+        <v>0.8740430280538758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8605156615932629</v>
+        <v>0.8697158259748413</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.07442970959957</v>
+        <v>83.33437140459692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4087430850602686</v>
+        <v>0.4427731207571924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8407442970959955</v>
+        <v>0.8333437140459694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8390163433879293</v>
+        <v>0.8287534832325136</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.92185053503923</v>
+        <v>68.68934852377615</v>
       </c>
       <c r="C6" t="n">
-        <v>1.130625786696328</v>
+        <v>0.9589918109588325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6592185053503923</v>
+        <v>0.6868934852377616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6476387079394319</v>
+        <v>0.6723453025798306</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.73654616389415</v>
+        <v>78.33778838917291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9580309288265804</v>
+        <v>0.6235945928143337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7473654616389415</v>
+        <v>0.7833778838917291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7324195871318706</v>
+        <v>0.7784013520729929</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.29619633387833</v>
+        <v>78.33242502097769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6018517413564648</v>
+        <v>0.6613026163346755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8029619633387831</v>
+        <v>0.7833242502097769</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7997228800601199</v>
+        <v>0.777641425986703</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.0496198063997</v>
+        <v>85.17366067180512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4199390513706021</v>
+        <v>0.3970076533458874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.860496198063997</v>
+        <v>0.8517366067180511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8558910673808473</v>
+        <v>0.8472019319422384</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.49079144283255</v>
+        <v>86.29045233955311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6514405742365246</v>
+        <v>0.3421450914815068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8549079144283255</v>
+        <v>0.8629045233955311</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8447558562541259</v>
+        <v>0.8624294835980137</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.87350236593741</v>
+        <v>81.21566795560516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4349229788756929</v>
+        <v>0.5202249631705248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8687350236593743</v>
+        <v>0.8121566795560515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8609876580616849</v>
+        <v>0.8050104391017017</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.28127405946418</v>
+        <v>76.76208271697853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9583219257746048</v>
+        <v>0.7487787136856544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7528127405946419</v>
+        <v>0.7676208271697853</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7344892406631948</v>
+        <v>0.7647724264657999</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.60361248799731</v>
+        <v>76.26718224206091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6189243551033238</v>
+        <v>0.7261356673824291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.776036124879973</v>
+        <v>0.7626718224206093</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7728664653989019</v>
+        <v>0.7546161258429692</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.17473334544415</v>
+        <v>88.88390037976107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3275764386053197</v>
+        <v>0.3500006518966984</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8917473334544417</v>
+        <v>0.8888390037976107</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8918152386694036</v>
+        <v>0.8868131160408833</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.18323687921176</v>
+        <v>92.33038348082596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228453808925163</v>
+        <v>0.1936650032859082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9218323687921176</v>
+        <v>0.9233038348082596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9223346662803742</v>
+        <v>0.9225306445072221</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.48377581120944</v>
+        <v>95.01474926253687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1423792157846037</v>
+        <v>0.1392421605597823</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9448377581120944</v>
+        <v>0.9501474926253687</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9428249598917094</v>
+        <v>0.9478909770151338</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.01349780995798</v>
+        <v>82.72456220786223</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5462196700830019</v>
+        <v>0.4945986210350222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8301349780995797</v>
+        <v>0.8272456220786225</v>
       </c>
       <c r="E17" t="n">
-        <v>0.822974655095894</v>
+        <v>0.8219006693906681</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.61502262130296</v>
+        <v>60.58763484113184</v>
       </c>
       <c r="C2" t="n">
-        <v>1.078755405545235</v>
+        <v>0.9964701910813648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5661502262130296</v>
+        <v>0.6058763484113184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5514877593338866</v>
+        <v>0.5908916097369503</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.15413628145573</v>
+        <v>61.13020008823607</v>
       </c>
       <c r="C3" t="n">
-        <v>1.005271591246128</v>
+        <v>0.8739922245343527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5815413628145573</v>
+        <v>0.6113020008823605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5588506769895129</v>
+        <v>0.5963694163784196</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.26959575774876</v>
+        <v>73.32442322165416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6427865840494633</v>
+        <v>0.6508308872580528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7526959575774878</v>
+        <v>0.7332442322165417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7524820923914144</v>
+        <v>0.7340522208045861</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.63443455393212</v>
+        <v>55.16362598292373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9864414960145951</v>
+        <v>1.057886106272539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6063443455393213</v>
+        <v>0.5516362598292373</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5915525216001647</v>
+        <v>0.5363450707180691</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.73438351542833</v>
+        <v>63.20167129473439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8720270558570823</v>
+        <v>0.8782633922994136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6473438351542834</v>
+        <v>0.6320167129473439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6317318722842933</v>
+        <v>0.6146068467767479</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.89404752636269</v>
+        <v>66.11510480194465</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1310646597296</v>
+        <v>0.9760059385250012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6189404752636268</v>
+        <v>0.6611510480194466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5908594801519036</v>
+        <v>0.6466903053558124</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.50268600939454</v>
+        <v>50.26116142873208</v>
       </c>
       <c r="C8" t="n">
-        <v>1.323287076503038</v>
+        <v>1.69711866673703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5050268600939455</v>
+        <v>0.5026116142873208</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4854725439173123</v>
+        <v>0.4334627000117236</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.80986859747922</v>
+        <v>58.12031245945034</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9323742936054865</v>
+        <v>0.9628849183519682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6080986859747922</v>
+        <v>0.5812031245945034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6020188177482902</v>
+        <v>0.5675091978856359</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.07468922741546</v>
+        <v>65.01604685161637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8358581483364105</v>
+        <v>0.8197597444057465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6407468922741546</v>
+        <v>0.6501604685161636</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6295946046047731</v>
+        <v>0.6417468112537067</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.81142570437461</v>
+        <v>62.31550445938113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8541648223996162</v>
+        <v>0.8587402090430259</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6081142570437461</v>
+        <v>0.6231550445938113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6065266582179732</v>
+        <v>0.6232750615959073</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.32749418247563</v>
+        <v>54.46889678976462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.97761085703969</v>
+        <v>1.054572496811549</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5832749418247563</v>
+        <v>0.5446889678976461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.580574922393035</v>
+        <v>0.5367453775264112</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.04758691684184</v>
+        <v>59.8303618543413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.899024678270022</v>
+        <v>0.8857046812772751</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6104758691684185</v>
+        <v>0.5983036185434131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6054239537551103</v>
+        <v>0.596951641802167</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.16941323021825</v>
+        <v>62.10693864133773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8776769618193307</v>
+        <v>0.8830054591099421</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6416941323021825</v>
+        <v>0.6210693864133773</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6269570034461047</v>
+        <v>0.613702131197418</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.19704322701753</v>
+        <v>80.1711952525541</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4908405448232467</v>
+        <v>0.4387914591779311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7819704322701753</v>
+        <v>0.8017119525255408</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7701254437801948</v>
+        <v>0.803729148372158</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.59773008417028</v>
+        <v>88.27740724400731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2972493095944325</v>
+        <v>0.3285293052593867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8759773008417028</v>
+        <v>0.882774072440073</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8738017157077295</v>
+        <v>0.8819652192870194</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.18930382904119</v>
+        <v>64.00603234745398</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8802955656555584</v>
+        <v>0.8908370453429719</v>
       </c>
       <c r="D17" t="n">
-        <v>0.641893038290412</v>
+        <v>0.6400603234745398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.63049733775478</v>
+        <v>0.6278695172468488</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.32348030692307</v>
+        <v>50.55164837066064</v>
       </c>
       <c r="C2" t="n">
-        <v>1.19651931921641</v>
+        <v>1.349967231353124</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5432348030692307</v>
+        <v>0.5055164837066065</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5210694445582542</v>
+        <v>0.4752043552387869</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.00698102924766</v>
+        <v>54.14302891893529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9541156883041063</v>
+        <v>1.024295449256897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5700698102924766</v>
+        <v>0.5414302891893529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.54898321276833</v>
+        <v>0.5302223085516116</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.23488092457548</v>
+        <v>65.28136056540282</v>
       </c>
       <c r="C4" t="n">
-        <v>1.068900594611963</v>
+        <v>0.947020902733008</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6223488092457548</v>
+        <v>0.6528136056540281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6053560893932017</v>
+        <v>0.6375133856221031</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.62780819903286</v>
+        <v>54.70419294284552</v>
       </c>
       <c r="C5" t="n">
-        <v>1.455964379260938</v>
+        <v>1.40190868601203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5462780819903286</v>
+        <v>0.5470419294284553</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4966149662012341</v>
+        <v>0.5143352235849893</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.53535930241611</v>
+        <v>58.17930950959783</v>
       </c>
       <c r="C6" t="n">
-        <v>1.308594298859437</v>
+        <v>1.251140421194335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5753535930241611</v>
+        <v>0.5817930950959783</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5368780522049701</v>
+        <v>0.5490414482336874</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.94244759902767</v>
+        <v>60.24576337165546</v>
       </c>
       <c r="C7" t="n">
-        <v>1.177912679562966</v>
+        <v>1.135668626055121</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5694244759902767</v>
+        <v>0.6024576337165547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5579549072738055</v>
+        <v>0.5872831136945035</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.20111765672713</v>
+        <v>40.34022785664236</v>
       </c>
       <c r="C8" t="n">
-        <v>2.737059246997039</v>
+        <v>3.738930663031836</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4920111765672713</v>
+        <v>0.4034022785664236</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4241043768500816</v>
+        <v>0.2879148985432428</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.53388870145935</v>
+        <v>52.61741018520921</v>
       </c>
       <c r="C9" t="n">
-        <v>1.925829884658257</v>
+        <v>1.462017952899138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4753388870145935</v>
+        <v>0.5261741018520921</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4139619868732953</v>
+        <v>0.5149534313389974</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.32317753613786</v>
+        <v>59.3254266905423</v>
       </c>
       <c r="C10" t="n">
-        <v>1.027154511461655</v>
+        <v>1.067600449919701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5932317753613786</v>
+        <v>0.593254266905423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5827197418746242</v>
+        <v>0.5864419588086651</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.00571804254362</v>
+        <v>53.33125719080615</v>
       </c>
       <c r="C11" t="n">
-        <v>1.313815281415979</v>
+        <v>1.197339204450449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5100571804254362</v>
+        <v>0.5333125719080615</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4785583472066907</v>
+        <v>0.5128861532840054</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.73768804228411</v>
+        <v>56.2645005579633</v>
       </c>
       <c r="C12" t="n">
-        <v>1.04722014516592</v>
+        <v>1.129549316565196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5673768804228411</v>
+        <v>0.562645005579633</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5431483403199687</v>
+        <v>0.541163589861935</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11520860907101</v>
+        <v>55.4168288653016</v>
       </c>
       <c r="C13" t="n">
-        <v>1.604286875575781</v>
+        <v>1.074028066794078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4811520860907101</v>
+        <v>0.554168288653016</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4343708169165551</v>
+        <v>0.5469980505012847</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.25646415626433</v>
+        <v>56.34027976020553</v>
       </c>
       <c r="C14" t="n">
-        <v>1.137130804608266</v>
+        <v>1.237663748860359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5725646415626433</v>
+        <v>0.5634027976020554</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5588451636749348</v>
+        <v>0.5339151898663884</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.68604399692039</v>
+        <v>77.53458074896841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.578510708604396</v>
+        <v>0.6124309386437138</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7668604399692038</v>
+        <v>0.7753458074896842</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7543445013997484</v>
+        <v>0.7623457880940074</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.21975103590862</v>
+        <v>81.5519165390704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9118255981593393</v>
+        <v>0.4751268280670047</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7321975103590862</v>
+        <v>0.8155191653907041</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7018782322257079</v>
+        <v>0.8112231902993561</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.45000100923595</v>
+        <v>58.38851547158712</v>
       </c>
       <c r="C17" t="n">
-        <v>1.296322667764163</v>
+        <v>1.273645899055733</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5745000100923595</v>
+        <v>0.5838851547158712</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5439192119827603</v>
+        <v>0.5594294723682377</v>
       </c>
     </row>
   </sheetData>
